--- a/Process Results/Unified_IBNP_NMS_PLICA.xlsx
+++ b/Process Results/Unified_IBNP_NMS_PLICA.xlsx
@@ -3734,20 +3734,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6272007914311981</v>
+        <v>0.4701197572436329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6515178591541999</v>
+        <v>0.5638239185698434</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7406414189397433</v>
+        <v>0.6812471454944755</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.2278814025977461</v>
+        <v>0.2889601790923312</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3772,20 +3772,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9479208695976447</v>
+        <v>0.9195993331335074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9256265940643233</v>
+        <v>0.9104222335843429</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9076209880575737</v>
+        <v>0.8988247202828643</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8573338582909146</v>
+        <v>0.838697839210136</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3810,20 +3810,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9678540053914569</v>
+        <v>0.9502127601689903</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9495387639715552</v>
+        <v>0.9398959172876061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9548093113035568</v>
+        <v>0.9489840899076365</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.900948144889942</v>
+        <v>0.8848257286195478</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3848,20 +3848,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9721517928165064</v>
+        <v>0.9561149863368217</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9559522899801455</v>
+        <v>0.9471294783502728</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.961636174394001</v>
+        <v>0.9562396245695248</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3886,20 +3886,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9763873821280683</v>
+        <v>0.9602807045370829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.969471773438086</v>
+        <v>0.9605241858574334</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9725533354324718</v>
+        <v>0.9670955202302419</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3924,20 +3924,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9778763639950064</v>
+        <v>0.9617451238673592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9702931128256829</v>
+        <v>0.9613379448220563</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9769232053766814</v>
+        <v>0.9714408671567984</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9580381273351128</v>
+        <v>0.9496471472138199</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3962,20 +3962,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9845822365181718</v>
+        <v>0.9683403750032823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9739260051355476</v>
+        <v>0.9649373079225059</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9788311700206377</v>
+        <v>0.9733381246055196</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -4000,20 +4000,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9938639867683058</v>
+        <v>0.9792403071097583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9846489160956897</v>
+        <v>0.9763993585251441</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9838977875221286</v>
+        <v>0.978768552022994</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4038,20 +4038,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9979473372484499</v>
+        <v>0.9832635753149129</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9943159460493669</v>
+        <v>0.985985396443147</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.988629119707878</v>
+        <v>0.9834752189261162</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4076,20 +4076,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9991827951994974</v>
+        <v>0.9844808547812299</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9960809389694546</v>
+        <v>0.9877356019497029</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9909537231104019</v>
+        <v>0.9857877037544904</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9889805921347967</v>
+        <v>0.9862985111179557</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4114,20 +4114,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9991827951994974</v>
+        <v>0.9844808547812299</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9962845357701465</v>
+        <v>0.9879374929814644</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9945216029817867</v>
+        <v>0.9893369836286754</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9909326750011443</v>
+        <v>0.9882453000033689</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4152,20 +4152,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9996218984164583</v>
+        <v>0.9849134970489388</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9977322825926486</v>
+        <v>0.9893731103326752</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9963398322837024</v>
+        <v>0.9911457341753797</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4190,20 +4190,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9996218984164583</v>
+        <v>0.9849460571928677</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9981215922562695</v>
+        <v>0.9897773170889274</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9975291962964521</v>
+        <v>0.9923386067714622</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4228,20 +4228,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9997927638954918</v>
+        <v>0.9851144084080492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9985492898931438</v>
+        <v>0.9902014312915794</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9988425386816873</v>
+        <v>0.9936451013371664</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>1.031290860648864</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>1.000133732971582</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -6058,7 +6058,7 @@
         <v>1.012295929255475</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>1.00548997777108</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6346,7 +6346,7 @@
         <v>1.01175336559212</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1</v>
+        <v>1.003629474065614</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6415,10 +6415,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>1.066870387529655</v>
+        <v>1.066870387529654</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1</v>
+        <v>1.046225128522907</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6490,7 +6490,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>1</v>
+        <v>8.215873015873017</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6711,61 +6711,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.6805946826782565</v>
+        <v>0.6483870640386036</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.7406414189397433</v>
+        <v>0.6812471454944755</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.6515178591541999</v>
+        <v>0.5638239185698434</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.6272007914311981</v>
+        <v>0.4701197572436329</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.3523536098948256</v>
+        <v>0.3073195343647186</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.4915314151191404</v>
+        <v>0.3669488120541399</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.3539530389062684</v>
+        <v>0.2387801072500996</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.6880213043458254</v>
+        <v>0.2425998657348318</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.2278814025977461</v>
+        <v>0.2889601790923312</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>1.26268817351404</v>
+        <v>1.314920072111166</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>1.225452647999174</v>
+        <v>1.319381264534272</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>1.420723286489754</v>
+        <v>1.61472793827842</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1.51135152019595</v>
+        <v>1.956095907402884</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>2.239302652598604</v>
+        <v>2.553036261984387</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>1.825136364803217</v>
+        <v>2.426459116125969</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>2.606494066458574</v>
+        <v>3.809139569104077</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1.369195444097723</v>
+        <v>3.774486449388728</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1.225452647999174</v>
+        <v>1.319381264534272</v>
       </c>
     </row>
     <row r="3">
@@ -6774,62 +6774,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.8593788567743754</v>
+        <v>0.8525771650015875</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.9076209880575737</v>
+        <v>0.8988247202828643</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.9256265940643233</v>
+        <v>0.9104222335843429</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.9479208695976447</v>
+        <v>0.9195993331335074</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.7890263732901768</v>
+        <v>0.7845979152492837</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.8971118601771292</v>
+        <v>0.8903862901603625</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.9225764957141694</v>
+        <v>0.9095467548412698</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.9420356353524768</v>
+        <v>0.9156899058396474</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.8573338582909146</v>
+        <v>0.838697839210136</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.044594233595468</v>
+        <v>1.046803243388254</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.051991220858579</v>
+        <v>1.055805507450871</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.025833494910984</v>
+        <v>1.032373642268407</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.0210282697988</v>
+        <v>1.033289962196002</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.046927383337997</v>
+        <v>1.049028525543583</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.057726272818331</v>
+        <v>1.061578366861907</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.023890686904965</v>
+        <v>1.031594874992116</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.02427790627605</v>
+        <v>1.039686282450352</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.051991220858579</v>
+        <v>1.055805507450871</v>
       </c>
     </row>
     <row r="4">
@@ -6838,62 +6838,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.8977021982603778</v>
+        <v>0.8924805415624241</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.9548093113035568</v>
+        <v>0.9489840899076365</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9495387639715552</v>
+        <v>0.9398959172876061</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9678540053914569</v>
+        <v>0.9502127601689903</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.8260533163733542</v>
+        <v>0.8230655941785255</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.9488987841662748</v>
+        <v>0.9452148237846695</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9446174819191567</v>
+        <v>0.9382837708599648</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.9649062882162632</v>
+        <v>0.9520302340797357</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.900948144889942</v>
+        <v>0.8848257286195478</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.030958842087427</v>
+        <v>1.031279732425227</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.007149975403071</v>
+        <v>1.007645580931283</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.006754359328907</v>
+        <v>1.007696129890149</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.004440532767451</v>
+        <v>1.006211478539587</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.0343593755883</v>
+        <v>1.034532207686663</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.008609116240983</v>
+        <v>1.008911572413117</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.008566789629637</v>
+        <v>1.009171701973906</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.005901507248704</v>
+        <v>1.007111331937242</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.007149975403071</v>
+        <v>1.007645580931283</v>
       </c>
     </row>
     <row r="5">
@@ -6902,31 +6902,31 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.9254940188578566</v>
+        <v>0.9203970940972181</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.961636174394001</v>
+        <v>0.9562396245695248</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9559522899801455</v>
+        <v>0.9471294783502728</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9721517928165064</v>
+        <v>0.9561149863368217</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.854435992526587</v>
+        <v>0.8514878662164447</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.9570679641000893</v>
+        <v>0.9536381741327783</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.952709821167236</v>
+        <v>0.9468894299732453</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9706006896704918</v>
+        <v>0.9588004370885671</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -6966,31 +6966,31 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.939672302088338</v>
+        <v>0.9344972940106943</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9725533354324718</v>
+        <v>0.9670955202302419</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.969471773438086</v>
+        <v>0.9605241858574334</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9763873821280683</v>
+        <v>0.9602807045370829</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8763639863466525</v>
+        <v>0.8733402001906294</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9695245590210687</v>
+        <v>0.9660501290638205</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9682799185202282</v>
+        <v>0.9623644049127706</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9753549612086863</v>
+        <v>0.9634969077148203</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9354560452554698</v>
+        <v>0.9185738192697945</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
@@ -7030,31 +7030,31 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9472933292697514</v>
+        <v>0.9420763503080708</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9769232053766814</v>
+        <v>0.9714408671567984</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9702931128256829</v>
+        <v>0.9613379448220563</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9778763639950064</v>
+        <v>0.9617451238673592</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8901975973549162</v>
+        <v>0.8871260800254237</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9743272702835567</v>
+        <v>0.9708356291234245</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9688204083083835</v>
+        <v>0.9629015926860484</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9764044195924364</v>
+        <v>0.9645336071193793</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9580381273351128</v>
+        <v>0.9496471472138199</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
@@ -7094,62 +7094,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9514780088724734</v>
+        <v>0.9462379838438837</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9788311700206377</v>
+        <v>0.9733381246055196</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9739260051355476</v>
+        <v>0.9649373079225059</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9845822365181718</v>
+        <v>0.9683403750032823</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9012182267197295</v>
+        <v>0.8981086840639764</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9766460704843034</v>
+        <v>0.9731461195719248</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9731685028438264</v>
+        <v>0.9672231234026006</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9850464835415675</v>
+        <v>0.973070603620574</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.005253513606954</v>
+        <v>1.005550763962395</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.00517619141755</v>
+        <v>1.005579178787099</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.01100998525925</v>
+        <v>1.011878544345348</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.009427094970713</v>
+        <v>1.011256302419941</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.005853763671668</v>
+        <v>1.006176703540556</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.005824817546648</v>
+        <v>1.006282315694238</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.011517996249384</v>
+        <v>1.012432992544564</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.009379780413783</v>
+        <v>1.011209773004143</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.00517619141755</v>
+        <v>1.005579178787099</v>
       </c>
     </row>
     <row r="9">
@@ -7158,31 +7158,31 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9564766115388029</v>
+        <v>0.9514903275444538</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9838977875221286</v>
+        <v>0.978768552022994</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9846489160956897</v>
+        <v>0.9763993585251441</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9938639867683058</v>
+        <v>0.9792403071097583</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9064937452355467</v>
+        <v>0.903656035152638</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9823348556525249</v>
+        <v>0.9792597307116978</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9843774540096006</v>
+        <v>0.9792486012847954</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9942860032545568</v>
+        <v>0.9839785042041652</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
@@ -7222,31 +7222,31 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9600561672269707</v>
+        <v>0.9550512223672963</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.988629119707878</v>
+        <v>0.9834752189261162</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9943159460493669</v>
+        <v>0.985985396443147</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9979473372484499</v>
+        <v>0.9832635753149129</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9098023968473673</v>
+        <v>0.9069543292809249</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9871154788990872</v>
+        <v>0.9840253885788953</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9935425941863066</v>
+        <v>0.9883659887890108</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9977557745474313</v>
+        <v>0.9874123052991396</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9860171405493957</v>
+        <v>0.9833430963103285</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
@@ -7286,31 +7286,31 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9913848310762193</v>
+        <v>0.9862165642772196</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9909537231104019</v>
+        <v>0.9857877037544904</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9960809389694546</v>
+        <v>0.9877356019497029</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9991827951994974</v>
+        <v>0.9844808547812299</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9902769936960523</v>
+        <v>0.9871770064929928</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9897722784926446</v>
+        <v>0.9866738712623422</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9956780966285476</v>
+        <v>0.9904903647294458</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9991712887695212</v>
+        <v>0.9888131452610548</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9889805921347967</v>
+        <v>0.9862985111179557</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
@@ -7350,31 +7350,31 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9944277940113277</v>
+        <v>0.9892436637011917</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9945216029817867</v>
+        <v>0.9893369836286754</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9962845357701465</v>
+        <v>0.9879374929814644</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9991827951994974</v>
+        <v>0.9844808547812299</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9939479785731462</v>
+        <v>0.9908364996296807</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9940529113567662</v>
+        <v>0.9909411039291611</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9959276089586526</v>
+        <v>0.9907385770379088</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9991712887695212</v>
+        <v>0.9888131452610548</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9909326750011443</v>
+        <v>0.9882453000033689</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
@@ -7414,62 +7414,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9963398322837024</v>
+        <v>0.9911457341753797</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9963398322837024</v>
+        <v>0.9911457341753797</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9977322825926486</v>
+        <v>0.9893731103326752</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9996218984164583</v>
+        <v>0.9849134970489388</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9961588685370437</v>
+        <v>0.9930404685698253</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9961588685370437</v>
+        <v>0.9930404685698253</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9976305613540104</v>
+        <v>0.9924326566253844</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9995753058011437</v>
+        <v>0.9892129739553618</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.001193733276751</v>
+        <v>1.001203528961435</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.001193733276751</v>
+        <v>1.001203528961435</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.000390194514514</v>
+        <v>1.00040854835454</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.000033058886924</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.000956496981619</v>
+        <v>1.000967641395918</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.000956496981619</v>
+        <v>1.000967641395918</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.000425305714143</v>
+        <v>1.00044759454274</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.000044577657194</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.001193733276751</v>
+        <v>1.001203528961435</v>
       </c>
     </row>
     <row r="14">
@@ -7478,47 +7478,47 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9975291962964521</v>
+        <v>0.9923386067714622</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9975291962964521</v>
+        <v>0.9923386067714622</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9981215922562695</v>
+        <v>0.9897773170889274</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9996218984164583</v>
+        <v>0.9849460571928677</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9971116914880126</v>
+        <v>0.9940013756350349</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9971116914880126</v>
+        <v>0.9940013756350349</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.998054859332358</v>
+        <v>0.9928768640665269</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9995753058011437</v>
+        <v>0.9892570707522066</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.00131659543411</v>
+        <v>1.001316581413631</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.00131659543411</v>
+        <v>1.001316581413631</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000428502539362</v>
+        <v>1.000428494566737</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000170930107978</v>
+        <v>1.000170924299815</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1.001744288030216</v>
@@ -7533,7 +7533,7 @@
         <v>1.0002240804768</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.00131659543411</v>
+        <v>1.001316581413631</v>
       </c>
     </row>
     <row r="15">
@@ -7542,62 +7542,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9988425386816873</v>
+        <v>0.9936451013371664</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9988425386816873</v>
+        <v>0.9936451013371664</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9985492898931438</v>
+        <v>0.9902014312915794</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9997927638954918</v>
+        <v>0.9851144084080492</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9988509414762636</v>
+        <v>0.9957352003365735</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9988509414762636</v>
+        <v>0.9957352003365735</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9985499745990337</v>
+        <v>0.993369410632211</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9997992911122654</v>
+        <v>0.9894787439482989</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>1</v>
+        <v>0.9972880347317516</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1</v>
+        <v>1.005230677771698</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1</v>
+        <v>1.005230677771698</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1</v>
+        <v>1.008430465093022</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1</v>
+        <v>1.014900153080862</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1</v>
+        <v>1.003129086064886</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1</v>
+        <v>1.003129086064886</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1</v>
+        <v>1.005215143441477</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1</v>
+        <v>1.010430286882955</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1</v>
+        <v>1.005230677771698</v>
       </c>
     </row>
     <row r="16">
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>70809.73666666666</v>
+        <v>70809.73666666668</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8615,13 +8615,13 @@
         <v>3519.95</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>7282.259999999999</v>
+        <v>7282.26</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>7526.669999999999</v>
+        <v>7526.67</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>7799.429999999999</v>
+        <v>7799.43</v>
       </c>
       <c r="W8" s="22" t="n">
         <v>9613.810000000001</v>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>77134.02333333333</v>
+        <v>77134.02333333335</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>72901.14583333334</v>
+        <v>72901.14583333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>71905.97999999997</v>
+        <v>74155.97999999997</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9797,7 +9797,7 @@
         <v>71905.97999999997</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>71905.97999999997</v>
+        <v>74155.97999999997</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>37163.61000000001</v>
+        <v>37168.58000000001</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9918,10 +9918,10 @@
         <v>37163.61000000001</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>37163.61000000001</v>
+        <v>37168.58000000001</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>37163.61000000001</v>
+        <v>37168.58000000001</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>36430.02</v>
+        <v>36630.02</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10715,7 +10715,7 @@
         <v>36430.02</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>36430.02</v>
+        <v>36630.02</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>66947.21500000001</v>
+        <v>66947.215</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>74848.31</v>
+        <v>75119.97</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11255,7 +11255,7 @@
         <v>74848.31</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>74848.31</v>
+        <v>75119.97</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>40586.15</v>
+        <v>42462.24999999999</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11386,10 +11386,10 @@
         <v>38042.25</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>40586.15</v>
+        <v>40586.14999999999</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>40586.15</v>
+        <v>42462.24999999999</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11463,7 +11463,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>4461</v>
+        <v>40372.80000000001</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11521,10 +11521,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>4461</v>
+        <v>4914</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>4461</v>
+        <v>40372.80000000001</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11601,7 +11601,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>583</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11628,7 +11628,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v/>
+        <v>60103.725</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>110</v>
@@ -11659,7 +11659,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>583</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
